--- a/BackTest/2019-10-27 BackTest FAB.xlsx
+++ b/BackTest/2019-10-27 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,19 @@
         <v>-1144188.7271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +851,23 @@
         <v>-1144188.7271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +894,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +933,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +964,19 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>5.99</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.99</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1001,23 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>5.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,22 +1042,23 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="J19" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>5.99</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,26 +1083,19 @@
         <v>-1192443.6158</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="J20" t="n">
         <v>5.91</v>
       </c>
-      <c r="K20" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1152,26 +1120,23 @@
         <v>-1233191.6158</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="J21" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>5.91</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,26 +1161,23 @@
         <v>-1247449.947</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J22" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>5.91</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1240,26 +1202,23 @@
         <v>-1169883.4182</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J23" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>5.91</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,26 +1243,23 @@
         <v>-1143883.4182</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J24" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>5.91</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1328,26 +1284,21 @@
         <v>-1143883.4182</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>5.91</v>
       </c>
-      <c r="K25" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1372,26 +1323,23 @@
         <v>-1143783.4182</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="J26" t="n">
         <v>5.91</v>
       </c>
-      <c r="K26" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1416,26 +1364,21 @@
         <v>-1143783.4182</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>5.91</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,24 +1403,23 @@
         <v>-975946.3441</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>5.99</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1504,22 +1446,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,22 +1485,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1588,22 +1524,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1630,22 +1563,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1672,22 +1602,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1714,22 +1641,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1756,22 +1680,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1798,22 +1719,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1840,22 +1758,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1882,22 +1797,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1924,22 +1836,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1966,22 +1875,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2008,22 +1914,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2050,22 +1953,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2092,22 +1992,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2134,22 +2031,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2176,22 +2070,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2218,22 +2109,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2260,22 +2148,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,22 +2187,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2344,22 +2226,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2386,22 +2265,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2428,22 +2304,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2470,22 +2343,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2512,22 +2382,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,22 +2421,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2596,22 +2460,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2638,22 +2499,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2680,22 +2538,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2722,22 +2577,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2764,22 +2616,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2806,22 +2655,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2848,22 +2694,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2890,22 +2733,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2932,22 +2772,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2974,22 +2811,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3014,24 +2848,21 @@
         <v>-620008.5797</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3058,22 +2889,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3098,24 +2926,21 @@
         <v>-620008.5797</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3142,22 +2967,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3182,24 +3004,21 @@
         <v>-570363.8408</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3226,22 +3045,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3268,22 +3084,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3310,22 +3123,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3350,24 +3160,23 @@
         <v>-601268.1206</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.064373942470389</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>1.025466893039049</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3394,22 +3203,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3436,22 +3236,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3478,22 +3269,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3520,24 +3302,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1.066065989847716</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1.025466893039049</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3564,16 +3335,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3598,18 +3366,15 @@
         <v>-527546.8817</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3634,18 +3399,15 @@
         <v>-527546.8817</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3670,18 +3432,15 @@
         <v>-527546.8817</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3706,18 +3465,15 @@
         <v>-527546.8817</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3742,18 +3498,15 @@
         <v>-459132.8817</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3778,18 +3531,15 @@
         <v>-459132.8817</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3814,18 +3564,15 @@
         <v>-459132.8817</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3850,18 +3597,15 @@
         <v>-417526.8817</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3886,18 +3630,15 @@
         <v>-417526.8817</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3922,18 +3663,15 @@
         <v>-602672.8469</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3958,18 +3696,15 @@
         <v>-602672.8469</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3994,18 +3729,15 @@
         <v>-602672.8469</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4030,18 +3762,15 @@
         <v>-602672.8469</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4066,18 +3795,15 @@
         <v>-539517.8469</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4102,18 +3828,15 @@
         <v>-539517.8469</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4138,18 +3861,15 @@
         <v>-929277.0253</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4174,18 +3894,15 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4210,18 +3927,15 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4246,18 +3960,15 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4282,18 +3993,15 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4320,16 +4028,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4356,16 +4061,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4392,16 +4094,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4428,16 +4127,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4464,16 +4160,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4500,16 +4193,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4536,16 +4226,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4572,16 +4259,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4608,16 +4292,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4644,16 +4325,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4680,16 +4358,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4716,16 +4391,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4752,16 +4424,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4788,16 +4457,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4824,16 +4490,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4860,16 +4523,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4896,16 +4556,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4932,16 +4589,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4968,16 +4622,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5004,16 +4655,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5040,16 +4688,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5076,16 +4721,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5112,16 +4754,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5148,16 +4787,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5184,16 +4820,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5220,16 +4853,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5256,16 +4886,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5292,16 +4919,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5328,18 +4952,15 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FAB.xlsx
+++ b/BackTest/2019-10-27 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,14 +814,10 @@
         <v>-1144188.7271</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -851,19 +847,11 @@
         <v>-1144188.7271</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -895,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -964,7 +946,7 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5.99</v>
@@ -1001,7 +983,7 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.91</v>
@@ -1042,7 +1024,7 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>5.91</v>
@@ -1083,7 +1065,7 @@
         <v>-1192443.6158</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>5.91</v>
@@ -1120,7 +1102,7 @@
         <v>-1233191.6158</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5.89</v>
@@ -1161,7 +1143,7 @@
         <v>-1247449.947</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>5.88</v>
@@ -1202,7 +1184,7 @@
         <v>-1169883.4182</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5.87</v>
@@ -1243,7 +1225,7 @@
         <v>-1143883.4182</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5.88</v>
@@ -1284,9 +1266,11 @@
         <v>-1143883.4182</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.91</v>
+      </c>
       <c r="J25" t="n">
         <v>5.91</v>
       </c>
@@ -1323,7 +1307,7 @@
         <v>-1143783.4182</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>5.91</v>
@@ -1403,11 +1387,9 @@
         <v>-975946.3441</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>5.91</v>
       </c>
@@ -2848,7 +2830,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
@@ -2926,7 +2908,7 @@
         <v>-620008.5797</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
@@ -3004,7 +2986,7 @@
         <v>-570363.8408</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
@@ -3160,7 +3142,7 @@
         <v>-601268.1206</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
@@ -3168,15 +3150,13 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.064373942470389</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.025466893039049</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3204,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3237,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3270,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3303,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3336,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3366,15 +3376,23 @@
         <v>-527546.8817</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>1.066065989847716</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.025466893039049</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3399,7 +3417,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3432,7 +3450,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3465,7 +3483,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3498,7 +3516,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3531,7 +3549,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3564,7 +3582,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3597,7 +3615,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3630,7 +3648,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3663,7 +3681,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3696,7 +3714,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3729,7 +3747,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3762,7 +3780,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3795,7 +3813,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3828,7 +3846,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3861,7 +3879,7 @@
         <v>-929277.0253</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3894,7 +3912,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3927,7 +3945,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3960,7 +3978,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3993,7 +4011,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4026,7 +4044,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4191,7 +4209,7 @@
         <v>-1154993.6294</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4224,7 +4242,7 @@
         <v>-1155925.9954</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4257,7 +4275,7 @@
         <v>-1194396.8951</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4290,7 +4308,7 @@
         <v>-818273.0503999998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4356,7 +4374,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4389,7 +4407,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4422,7 +4440,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4455,7 +4473,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4488,7 +4506,7 @@
         <v>-818243.0503999998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4521,7 +4539,7 @@
         <v>-818243.0503999998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4719,7 +4737,7 @@
         <v>-1172399.809</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4884,7 +4902,7 @@
         <v>-924611.1499999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4950,7 +4968,7 @@
         <v>-924599.1499999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4961,6 +4979,6 @@
       <c r="M127" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FAB.xlsx
+++ b/BackTest/2019-10-27 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>-1192263.6158</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,14 +1045,10 @@
         <v>-1192443.6158</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1107,9 +1083,7 @@
       <c r="I21" t="n">
         <v>5.89</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1148,9 +1122,7 @@
       <c r="I22" t="n">
         <v>5.88</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1189,9 +1161,7 @@
       <c r="I23" t="n">
         <v>5.87</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,9 +1200,7 @@
       <c r="I24" t="n">
         <v>5.88</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1271,9 +1239,7 @@
       <c r="I25" t="n">
         <v>5.91</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1312,9 +1278,7 @@
       <c r="I26" t="n">
         <v>5.91</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1351,9 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1390,9 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,9 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1468,9 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,9 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1546,9 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1582,20 +1534,16 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1621,17 +1569,11 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1660,17 +1602,11 @@
         <v>-655136.7590999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1699,17 +1635,11 @@
         <v>-705136.7590999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1738,17 +1668,11 @@
         <v>-583927.3542999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1777,17 +1701,11 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1816,17 +1734,11 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1855,17 +1767,11 @@
         <v>-535100.5323999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1894,17 +1800,11 @@
         <v>-521825.5323999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,17 +1833,11 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1972,17 +1866,11 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,17 +1899,11 @@
         <v>-540024.5808999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2050,17 +1932,11 @@
         <v>-590824.5808999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2089,17 +1965,11 @@
         <v>-586089.4018</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2131,14 +2001,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +2034,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2206,17 +2064,11 @@
         <v>-586343.4794</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2245,17 +2097,11 @@
         <v>-672166.7657999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2287,14 +2133,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2326,14 +2166,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2365,14 +2199,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2401,17 +2229,11 @@
         <v>-762066.7657999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2443,14 +2265,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2482,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2521,14 +2331,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2557,17 +2361,11 @@
         <v>-671898.5351</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2596,17 +2394,11 @@
         <v>-671898.5351</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2635,17 +2427,11 @@
         <v>-671898.5351</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2674,17 +2460,11 @@
         <v>-671898.5351</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2493,11 @@
         <v>-671898.5351</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +2526,11 @@
         <v>-671898.5351</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2791,17 +2559,11 @@
         <v>-620008.5797</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2830,17 +2592,11 @@
         <v>-620008.5797</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2869,17 +2625,11 @@
         <v>-620008.5797</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2661,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2947,17 +2691,11 @@
         <v>-576128.4763</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2986,17 +2724,11 @@
         <v>-570363.8408</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3025,17 +2757,11 @@
         <v>-425669.4168</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3067,14 +2793,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3106,14 +2826,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +2859,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +2892,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2958,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +2991,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3340,14 +3024,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3376,23 +3054,15 @@
         <v>-527546.8817</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.066065989847716</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.025466893039049</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3417,7 +3087,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3450,7 +3120,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3483,7 +3153,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3516,7 +3186,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3549,7 +3219,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3582,7 +3252,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3615,7 +3285,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3648,7 +3318,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3681,7 +3351,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3714,7 +3384,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3747,7 +3417,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3780,7 +3450,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3813,7 +3483,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3846,7 +3516,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3879,7 +3549,7 @@
         <v>-929277.0253</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3912,7 +3582,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3945,7 +3615,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3978,7 +3648,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4044,7 +3714,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4209,7 +3879,7 @@
         <v>-1154993.6294</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4242,7 +3912,7 @@
         <v>-1155925.9954</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4275,7 +3945,7 @@
         <v>-1194396.8951</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4308,7 +3978,7 @@
         <v>-818273.0503999998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4374,7 +4044,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4407,7 +4077,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4440,7 +4110,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4473,7 +4143,7 @@
         <v>-818253.0503999998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4506,7 +4176,7 @@
         <v>-818243.0503999998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4539,7 +4209,7 @@
         <v>-818243.0503999998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4737,7 +4407,7 @@
         <v>-1172399.809</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4902,7 +4572,7 @@
         <v>-924611.1499999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4968,7 +4638,7 @@
         <v>-924599.1499999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4979,6 +4649,6 @@
       <c r="M127" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FAB.xlsx
+++ b/BackTest/2019-10-27 BackTest FAB.xlsx
@@ -1534,16 +1534,18 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1569,11 +1571,15 @@
         <v>-625681.7688999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1602,11 +1608,15 @@
         <v>-655136.7590999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1635,11 +1645,15 @@
         <v>-705136.7590999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1668,11 +1682,15 @@
         <v>-583927.3542999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1701,11 +1719,15 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1734,11 +1756,15 @@
         <v>-538600.5323999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1767,11 +1793,15 @@
         <v>-535100.5323999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1800,11 +1830,15 @@
         <v>-521825.5323999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1833,11 +1867,15 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1866,11 +1904,15 @@
         <v>-540056.4578999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1899,11 +1941,15 @@
         <v>-540024.5808999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1932,11 +1978,15 @@
         <v>-590824.5808999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1965,11 +2015,15 @@
         <v>-586089.4018</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2002,7 +2056,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2035,7 +2093,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2064,11 +2126,15 @@
         <v>-586343.4794</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2097,11 +2163,15 @@
         <v>-672166.7657999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2134,7 +2204,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2167,7 +2241,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2200,7 +2278,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2311,15 @@
         <v>-762066.7657999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2266,7 +2352,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2299,7 +2389,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2332,7 +2426,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2361,11 +2459,15 @@
         <v>-671898.5351</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2394,11 +2496,15 @@
         <v>-671898.5351</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2427,11 +2533,15 @@
         <v>-671898.5351</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2460,11 +2570,15 @@
         <v>-671898.5351</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2493,11 +2607,15 @@
         <v>-671898.5351</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2526,11 +2644,15 @@
         <v>-671898.5351</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2559,11 +2681,15 @@
         <v>-620008.5797</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2592,11 +2718,15 @@
         <v>-620008.5797</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2625,11 +2755,15 @@
         <v>-620008.5797</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2662,7 +2796,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2829,15 @@
         <v>-576128.4763</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2724,11 +2866,15 @@
         <v>-570363.8408</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2757,11 +2903,15 @@
         <v>-425669.4168</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2794,7 +2944,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2827,7 +2981,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2860,7 +3018,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2893,7 +3055,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2926,7 +3092,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2959,7 +3129,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2992,7 +3166,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3025,7 +3203,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3058,7 +3240,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3087,14 +3273,16 @@
         <v>-527546.8817</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3120,7 +3308,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3153,7 +3341,7 @@
         <v>-527546.8817</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3186,7 +3374,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3219,7 +3407,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3252,7 +3440,7 @@
         <v>-459132.8817</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3285,7 +3473,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3318,7 +3506,7 @@
         <v>-417526.8817</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3351,7 +3539,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3384,7 +3572,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3417,7 +3605,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3450,7 +3638,7 @@
         <v>-602672.8469</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3483,7 +3671,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3516,7 +3704,7 @@
         <v>-539517.8469</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3549,7 +3737,7 @@
         <v>-929277.0253</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3582,7 +3770,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3615,7 +3803,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3648,7 +3836,7 @@
         <v>-878591.3245999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3714,7 +3902,7 @@
         <v>-930482.3245999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest FAB.xlsx
+++ b/BackTest/2019-10-27 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-1122153.2268</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>77505.5672</v>
       </c>
       <c r="G3" t="n">
-        <v>-1044647.6596</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>101549.4195</v>
       </c>
       <c r="G4" t="n">
-        <v>-943098.2401000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1576.9375</v>
       </c>
       <c r="G5" t="n">
-        <v>-941521.3026000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>202080.342</v>
       </c>
       <c r="G6" t="n">
-        <v>-1143601.6446</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>117692.5239</v>
       </c>
       <c r="G7" t="n">
-        <v>-1143601.6446</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>121.625</v>
       </c>
       <c r="G8" t="n">
-        <v>-1143480.0196</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>754.2908</v>
       </c>
       <c r="G9" t="n">
-        <v>-1144234.3104</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>45.5833</v>
       </c>
       <c r="G10" t="n">
-        <v>-1144188.7271</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>16531.6666</v>
       </c>
       <c r="G11" t="n">
-        <v>-1144188.7271</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>7651.1916</v>
       </c>
       <c r="G12" t="n">
-        <v>-1144188.7271</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>-1144188.7271</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>905.9</v>
       </c>
       <c r="G14" t="n">
-        <v>-1144188.7271</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>660.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-1144188.7271</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>10171.8887</v>
       </c>
       <c r="G16" t="n">
-        <v>-1154360.6158</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>37903</v>
       </c>
       <c r="G17" t="n">
-        <v>-1192263.6158</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>30000</v>
       </c>
       <c r="G18" t="n">
-        <v>-1192263.6158</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>18183.9255</v>
       </c>
       <c r="G19" t="n">
-        <v>-1192263.6158</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>180</v>
       </c>
       <c r="G20" t="n">
-        <v>-1192443.6158</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,24 +1013,15 @@
         <v>40748</v>
       </c>
       <c r="G21" t="n">
-        <v>-1233191.6158</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1114,24 +1043,15 @@
         <v>14258.3312</v>
       </c>
       <c r="G22" t="n">
-        <v>-1247449.947</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1153,24 +1073,15 @@
         <v>77566.5288</v>
       </c>
       <c r="G23" t="n">
-        <v>-1169883.4182</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,24 +1103,15 @@
         <v>26000</v>
       </c>
       <c r="G24" t="n">
-        <v>-1143883.4182</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1231,24 +1133,19 @@
         <v>204720.2514</v>
       </c>
       <c r="G25" t="n">
-        <v>-1143883.4182</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>5.91</v>
       </c>
       <c r="I25" t="n">
         <v>5.91</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1270,24 +1167,21 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>-1143783.4182</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>5.91</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1309,22 +1203,23 @@
         <v>3366</v>
       </c>
       <c r="G27" t="n">
-        <v>-1143783.4182</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>5.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1346,22 +1241,23 @@
         <v>167837.0741</v>
       </c>
       <c r="G28" t="n">
-        <v>-975946.3441</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>5.99</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1383,22 +1279,23 @@
         <v>300562.7318</v>
       </c>
       <c r="G29" t="n">
-        <v>-675383.6122999999</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+        <v>6.03</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1420,22 +1317,21 @@
         <v>598</v>
       </c>
       <c r="G30" t="n">
-        <v>-674785.6122999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1457,22 +1353,21 @@
         <v>46372.6708</v>
       </c>
       <c r="G31" t="n">
-        <v>-628412.9415</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1494,22 +1389,21 @@
         <v>112070.0165</v>
       </c>
       <c r="G32" t="n">
-        <v>-628412.9415</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1531,22 +1425,21 @@
         <v>2731.1726</v>
       </c>
       <c r="G33" t="n">
-        <v>-625681.7688999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,22 +1461,21 @@
         <v>176130.47</v>
       </c>
       <c r="G34" t="n">
-        <v>-625681.7688999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1605,22 +1497,21 @@
         <v>29454.9902</v>
       </c>
       <c r="G35" t="n">
-        <v>-655136.7590999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1642,22 +1533,21 @@
         <v>50000</v>
       </c>
       <c r="G36" t="n">
-        <v>-705136.7590999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,22 +1569,21 @@
         <v>121209.4048</v>
       </c>
       <c r="G37" t="n">
-        <v>-583927.3542999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1716,22 +1605,21 @@
         <v>45326.8219</v>
       </c>
       <c r="G38" t="n">
-        <v>-538600.5323999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1753,22 +1641,21 @@
         <v>51.0568</v>
       </c>
       <c r="G39" t="n">
-        <v>-538600.5323999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1790,22 +1677,21 @@
         <v>3500</v>
       </c>
       <c r="G40" t="n">
-        <v>-535100.5323999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,22 +1713,21 @@
         <v>13275</v>
       </c>
       <c r="G41" t="n">
-        <v>-521825.5323999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1864,22 +1749,21 @@
         <v>18230.9255</v>
       </c>
       <c r="G42" t="n">
-        <v>-540056.4578999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1901,22 +1785,21 @@
         <v>65381.2022</v>
       </c>
       <c r="G43" t="n">
-        <v>-540056.4578999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1938,22 +1821,21 @@
         <v>31.877</v>
       </c>
       <c r="G44" t="n">
-        <v>-540024.5808999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1975,22 +1857,21 @@
         <v>50800</v>
       </c>
       <c r="G45" t="n">
-        <v>-590824.5808999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2012,22 +1893,21 @@
         <v>4735.1791</v>
       </c>
       <c r="G46" t="n">
-        <v>-586089.4018</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2049,22 +1929,21 @@
         <v>264.0776</v>
       </c>
       <c r="G47" t="n">
-        <v>-586353.4794</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2086,22 +1965,21 @@
         <v>6666</v>
       </c>
       <c r="G48" t="n">
-        <v>-586353.4794</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,22 +2001,21 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-586343.4794</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,22 +2037,21 @@
         <v>85823.2864</v>
       </c>
       <c r="G50" t="n">
-        <v>-672166.7657999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2197,22 +2073,21 @@
         <v>85995</v>
       </c>
       <c r="G51" t="n">
-        <v>-672166.7657999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2234,22 +2109,21 @@
         <v>157457.5583</v>
       </c>
       <c r="G52" t="n">
-        <v>-672166.7657999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2271,22 +2145,21 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>-672066.7657999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2308,22 +2181,21 @@
         <v>90000</v>
       </c>
       <c r="G54" t="n">
-        <v>-762066.7657999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2345,22 +2217,21 @@
         <v>47694.8437</v>
       </c>
       <c r="G55" t="n">
-        <v>-714371.9221</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2382,22 +2253,21 @@
         <v>42473.387</v>
       </c>
       <c r="G56" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2419,22 +2289,21 @@
         <v>37815.1612</v>
       </c>
       <c r="G57" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2456,22 +2325,21 @@
         <v>85516.4516</v>
       </c>
       <c r="G58" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2493,22 +2361,21 @@
         <v>25357</v>
       </c>
       <c r="G59" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2530,22 +2397,21 @@
         <v>85701.9032</v>
       </c>
       <c r="G60" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2567,22 +2433,21 @@
         <v>64002</v>
       </c>
       <c r="G61" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2604,22 +2469,21 @@
         <v>58480</v>
       </c>
       <c r="G62" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2641,22 +2505,21 @@
         <v>10107.1337</v>
       </c>
       <c r="G63" t="n">
-        <v>-671898.5351</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2678,22 +2541,21 @@
         <v>51889.9554</v>
       </c>
       <c r="G64" t="n">
-        <v>-620008.5797</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2715,22 +2577,21 @@
         <v>41979</v>
       </c>
       <c r="G65" t="n">
-        <v>-620008.5797</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2752,22 +2613,21 @@
         <v>211782.884</v>
       </c>
       <c r="G66" t="n">
-        <v>-620008.5797</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2789,22 +2649,21 @@
         <v>36157.6458</v>
       </c>
       <c r="G67" t="n">
-        <v>-620008.5797</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2826,22 +2685,21 @@
         <v>43880.1034</v>
       </c>
       <c r="G68" t="n">
-        <v>-576128.4763</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2863,22 +2721,21 @@
         <v>5764.6355</v>
       </c>
       <c r="G69" t="n">
-        <v>-570363.8408</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2900,22 +2757,21 @@
         <v>144694.424</v>
       </c>
       <c r="G70" t="n">
-        <v>-425669.4168</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2937,22 +2793,21 @@
         <v>256373.7038</v>
       </c>
       <c r="G71" t="n">
-        <v>-682043.1206</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2974,22 +2829,23 @@
         <v>80775</v>
       </c>
       <c r="G72" t="n">
-        <v>-601268.1206</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1.064373942470389</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>1.028960817717206</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3011,22 +2867,15 @@
         <v>68782</v>
       </c>
       <c r="G73" t="n">
-        <v>-601268.1206</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,22 +2897,15 @@
         <v>24651.0898</v>
       </c>
       <c r="G74" t="n">
-        <v>-601268.1206</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3085,22 +2927,15 @@
         <v>73721.2389</v>
       </c>
       <c r="G75" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,22 +2957,15 @@
         <v>77802</v>
       </c>
       <c r="G76" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3159,22 +2987,15 @@
         <v>58109</v>
       </c>
       <c r="G77" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3196,22 +3017,15 @@
         <v>85282</v>
       </c>
       <c r="G78" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3233,22 +3047,15 @@
         <v>134568.2954</v>
       </c>
       <c r="G79" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3270,20 +3077,15 @@
         <v>77784</v>
       </c>
       <c r="G80" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K80" t="n">
+        <v>1</v>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3305,18 +3107,15 @@
         <v>73983</v>
       </c>
       <c r="G81" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,18 +3137,15 @@
         <v>88730.4795</v>
       </c>
       <c r="G82" t="n">
-        <v>-527546.8817</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3371,18 +3167,15 @@
         <v>68414</v>
       </c>
       <c r="G83" t="n">
-        <v>-459132.8817</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3404,18 +3197,15 @@
         <v>51187</v>
       </c>
       <c r="G84" t="n">
-        <v>-459132.8817</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3437,18 +3227,15 @@
         <v>49277.2691</v>
       </c>
       <c r="G85" t="n">
-        <v>-459132.8817</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3470,18 +3257,15 @@
         <v>41606</v>
       </c>
       <c r="G86" t="n">
-        <v>-417526.8817</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3503,18 +3287,15 @@
         <v>225264.307</v>
       </c>
       <c r="G87" t="n">
-        <v>-417526.8817</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3536,18 +3317,15 @@
         <v>185145.9652</v>
       </c>
       <c r="G88" t="n">
-        <v>-602672.8469</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3569,18 +3347,15 @@
         <v>106723</v>
       </c>
       <c r="G89" t="n">
-        <v>-602672.8469</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3602,18 +3377,15 @@
         <v>53845</v>
       </c>
       <c r="G90" t="n">
-        <v>-602672.8469</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3635,18 +3407,15 @@
         <v>199187.8752</v>
       </c>
       <c r="G91" t="n">
-        <v>-602672.8469</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3668,18 +3437,15 @@
         <v>63155</v>
       </c>
       <c r="G92" t="n">
-        <v>-539517.8469</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3701,18 +3467,15 @@
         <v>67098</v>
       </c>
       <c r="G93" t="n">
-        <v>-539517.8469</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3734,18 +3497,15 @@
         <v>389759.1784</v>
       </c>
       <c r="G94" t="n">
-        <v>-929277.0253</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3767,18 +3527,15 @@
         <v>50685.7007</v>
       </c>
       <c r="G95" t="n">
-        <v>-878591.3245999999</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3800,18 +3557,15 @@
         <v>104819.5275</v>
       </c>
       <c r="G96" t="n">
-        <v>-878591.3245999999</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3833,18 +3587,15 @@
         <v>49000</v>
       </c>
       <c r="G97" t="n">
-        <v>-878591.3245999999</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3866,18 +3617,15 @@
         <v>51891</v>
       </c>
       <c r="G98" t="n">
-        <v>-930482.3245999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3899,18 +3647,15 @@
         <v>47766</v>
       </c>
       <c r="G99" t="n">
-        <v>-930482.3245999999</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3932,18 +3677,15 @@
         <v>83550</v>
       </c>
       <c r="G100" t="n">
-        <v>-930482.3245999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3965,18 +3707,15 @@
         <v>35475.619</v>
       </c>
       <c r="G101" t="n">
-        <v>-930482.3245999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3998,18 +3737,15 @@
         <v>224511.3048</v>
       </c>
       <c r="G102" t="n">
-        <v>-1154993.6294</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4031,18 +3767,15 @@
         <v>333</v>
       </c>
       <c r="G103" t="n">
-        <v>-1154993.6294</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4064,18 +3797,15 @@
         <v>147086.0595</v>
       </c>
       <c r="G104" t="n">
-        <v>-1154993.6294</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4097,18 +3827,15 @@
         <v>932.366</v>
       </c>
       <c r="G105" t="n">
-        <v>-1155925.9954</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4130,18 +3857,15 @@
         <v>38470.8997</v>
       </c>
       <c r="G106" t="n">
-        <v>-1194396.8951</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4163,18 +3887,15 @@
         <v>376123.8447</v>
       </c>
       <c r="G107" t="n">
-        <v>-818273.0503999998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4196,18 +3917,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-818263.0503999998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4229,18 +3947,15 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>-818253.0503999998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4262,18 +3977,15 @@
         <v>11014</v>
       </c>
       <c r="G110" t="n">
-        <v>-818253.0503999998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4295,18 +4007,15 @@
         <v>60535</v>
       </c>
       <c r="G111" t="n">
-        <v>-818253.0503999998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4328,18 +4037,15 @@
         <v>8248.0969</v>
       </c>
       <c r="G112" t="n">
-        <v>-818253.0503999998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4361,18 +4067,15 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-818243.0503999998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4394,18 +4097,15 @@
         <v>98.2997</v>
       </c>
       <c r="G114" t="n">
-        <v>-818243.0503999998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4427,18 +4127,15 @@
         <v>900</v>
       </c>
       <c r="G115" t="n">
-        <v>-818243.0503999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4460,18 +4157,15 @@
         <v>60000</v>
       </c>
       <c r="G116" t="n">
-        <v>-818243.0503999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4493,18 +4187,15 @@
         <v>98278.42509999999</v>
       </c>
       <c r="G117" t="n">
-        <v>-818243.0503999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4526,18 +4217,15 @@
         <v>31655</v>
       </c>
       <c r="G118" t="n">
-        <v>-849898.0503999998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4559,18 +4247,15 @@
         <v>322501.7586</v>
       </c>
       <c r="G119" t="n">
-        <v>-1172399.809</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4592,18 +4277,15 @@
         <v>42431</v>
       </c>
       <c r="G120" t="n">
-        <v>-1172399.809</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4625,18 +4307,15 @@
         <v>75140</v>
       </c>
       <c r="G121" t="n">
-        <v>-1172399.809</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4658,18 +4337,15 @@
         <v>247828.609</v>
       </c>
       <c r="G122" t="n">
-        <v>-924571.2</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4691,18 +4367,15 @@
         <v>52.717</v>
       </c>
       <c r="G123" t="n">
-        <v>-924571.2</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4724,18 +4397,15 @@
         <v>51.95</v>
       </c>
       <c r="G124" t="n">
-        <v>-924571.2</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4757,18 +4427,15 @@
         <v>39.95</v>
       </c>
       <c r="G125" t="n">
-        <v>-924611.1499999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4790,18 +4457,15 @@
         <v>51.4724</v>
       </c>
       <c r="G126" t="n">
-        <v>-924611.1499999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4823,18 +4487,15 @@
         <v>12</v>
       </c>
       <c r="G127" t="n">
-        <v>-924599.1499999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
